--- a/doc/paw/友班API完成进度表-V1.6.xlsx
+++ b/doc/paw/友班API完成进度表-V1.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiliang/Development/uband/uunodeapi/doc/paw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912CBDB8-5EE7-494E-A5A1-0192B701E16A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC3ACE-A0D9-AF4F-BAE2-B108732A7227}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540" activeTab="1" xr2:uid="{F3024B52-C214-C54B-9291-7F18A16D6793}"/>
   </bookViews>
@@ -1301,7 +1301,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
